--- a/ipa_2/myUtils/phases trials.xlsx
+++ b/ipa_2/myUtils/phases trials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C0CD3-D375-4254-B895-F9FC2F0DFE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512938A-A424-4F1A-AFC0-216FFDB0B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>practice_trials_content</t>
   </si>
   <si>
-    <t>0.2, 0.7, 0.5</t>
-  </si>
-  <si>
-    <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8, 0.9</t>
-  </si>
-  <si>
     <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8</t>
+  </si>
+  <si>
+    <t>0.2, 0.8, 0.3, 0.7, 0.4, 0.6, 0.501, 0.5011, 0.9, 0.901, 0.301, 0.3011</t>
+  </si>
+  <si>
+    <t>0.2, 0.7, 0.32, 0.62</t>
   </si>
 </sst>
 </file>
@@ -384,13 +384,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -421,7 +422,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -429,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -438,7 +439,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/phases trials.xlsx
+++ b/ipa_2/myUtils/phases trials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512938A-A424-4F1A-AFC0-216FFDB0B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D89B5E-7824-46B2-8ADA-78AB5E475EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8</t>
   </si>
   <si>
-    <t>0.2, 0.8, 0.3, 0.7, 0.4, 0.6, 0.501, 0.5011, 0.9, 0.901, 0.301, 0.3011</t>
-  </si>
-  <si>
-    <t>0.2, 0.7, 0.32, 0.62</t>
+    <t>0.2, 0.7, 0.32, 0.62, 0.41, 0.51</t>
+  </si>
+  <si>
+    <t>0.2, 0.8, 0.3, 0.7, 0.4, 0.6, 0.501, 0.5011, 0.9, 0.901, 0.301, 0.3011, 0.35, 0.65, 0.72, 1</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/phases trials.xlsx
+++ b/ipa_2/myUtils/phases trials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D89B5E-7824-46B2-8ADA-78AB5E475EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C0CD3-D375-4254-B895-F9FC2F0DFE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>practice_trials_content</t>
   </si>
   <si>
+    <t>0.2, 0.7, 0.5</t>
+  </si>
+  <si>
+    <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8, 0.9</t>
+  </si>
+  <si>
     <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8</t>
-  </si>
-  <si>
-    <t>0.2, 0.7, 0.32, 0.62, 0.41, 0.51</t>
-  </si>
-  <si>
-    <t>0.2, 0.8, 0.3, 0.7, 0.4, 0.6, 0.501, 0.5011, 0.9, 0.901, 0.301, 0.3011, 0.35, 0.65, 0.72, 1</t>
   </si>
 </sst>
 </file>
@@ -384,14 +384,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -422,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -430,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/phases trials.xlsx
+++ b/ipa_2/myUtils/phases trials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C0CD3-D375-4254-B895-F9FC2F0DFE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C6E73-0ED7-4593-882D-0D3507CAE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>practice_trials_content</t>
   </si>
   <si>
-    <t>0.2, 0.7, 0.5</t>
-  </si>
-  <si>
-    <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8, 0.9</t>
-  </si>
-  <si>
     <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8</t>
+  </si>
+  <si>
+    <t>0.2, 0.35, 0.75, 0.9</t>
+  </si>
+  <si>
+    <t>0.21, 0.7, 0.5</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/phases trials.xlsx
+++ b/ipa_2/myUtils/phases trials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C6E73-0ED7-4593-882D-0D3507CAE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08ECF53-6EFA-41BB-B739-6E14328A7610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>practice_trials_content</t>
   </si>
   <si>
-    <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8</t>
-  </si>
-  <si>
-    <t>0.2, 0.35, 0.75, 0.9</t>
-  </si>
-  <si>
-    <t>0.21, 0.7, 0.5</t>
+    <t>0.35, 0.5, 0.75, 0.9</t>
+  </si>
+  <si>
+    <t>0.41, 0.61, 0.81</t>
+  </si>
+  <si>
+    <t>0.4, 0.45, 0.5, 0.6, 0.65, 0.7, 0.8, 0.85</t>
   </si>
 </sst>
 </file>
@@ -384,16 +384,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -410,7 +410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -421,10 +421,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
